--- a/DataFiles/Keywords.xlsx
+++ b/DataFiles/Keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\SeleniumWebdriver\DataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF2A4A6-2C2D-4577-A48E-E5584D020484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BCE033-27B6-4DF6-BE31-8D8E684CA52E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C6BB840D-AF01-422E-8D32-72D1C75D238D}"/>
+    <workbookView xWindow="0" yWindow="1230" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C6BB840D-AF01-422E-8D32-72D1C75D238D}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSuite" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>TCID</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>login</t>
-  </si>
-  <si>
     <t>Bugzilla_login</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>XPath</t>
   </si>
   <si>
-    <t>//div[@id="header"]/ul[1]/li[11]/a</t>
-  </si>
-  <si>
     <t>thaotran@bugzilla.com</t>
   </si>
   <si>
@@ -189,13 +183,16 @@
     <t>Wait for an element displays</t>
   </si>
   <si>
-    <t>Xpath</t>
-  </si>
-  <si>
     <t>ClassName</t>
   </si>
   <si>
     <t>CssSelector</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>//div[@id='header']/descendant::li[position()=11]/a</t>
   </si>
 </sst>
 </file>
@@ -610,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC039542-7AD9-41BF-998A-4E4204D925ED}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +617,7 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="36" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
     <col min="6" max="6" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,10 +668,10 @@
         <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -710,7 +707,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
     </row>
@@ -728,10 +725,10 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -748,10 +745,10 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -768,7 +765,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="2"/>
     </row>
@@ -783,10 +780,10 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F9" s="2"/>
     </row>
@@ -801,10 +798,10 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="F10" s="2"/>
     </row>
@@ -819,10 +816,10 @@
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -858,7 +855,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7731D2AB-823B-4750-AAEB-FA325FD6261A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -873,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +878,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,15 +894,15 @@
         <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +910,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +937,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -951,25 +948,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
     </row>
@@ -981,7 +978,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2"/>
     </row>
